--- a/biology/Médecine/Loge_brachiale_postérieure/Loge_brachiale_postérieure.xlsx
+++ b/biology/Médecine/Loge_brachiale_postérieure/Loge_brachiale_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loge_brachiale_post%C3%A9rieure</t>
+          <t>Loge_brachiale_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge brachiale postérieure (ou loge postérieure du bras) est un compartiment ostéo-aponévrotique formant la région postérieure du bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loge_brachiale_post%C3%A9rieure</t>
+          <t>Loge_brachiale_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loge brachiale postérieure est située en arrière de l'humérus et est limitée latéralement par les septums intermusculaires médial et latéral du bras et en arrière par le fascia brachial.
-Pour simplifier, la loge brachiale postérieure comprend les muscles extenseurs du coude[1] qui sont :
+Pour simplifier, la loge brachiale postérieure comprend les muscles extenseurs du coude qui sont :
 le muscle triceps brachial qui comporte trois chefs,
-le muscle anconé qui ne fait pas partie de la loge brachiale postérieure, mais que certains auteurs rattachent au muscle triceps[2].
+le muscle anconé qui ne fait pas partie de la loge brachiale postérieure, mais que certains auteurs rattachent au muscle triceps.
 Ces muscles sont innervés par le nerf radial et vascularisés par l'artère profonde du bras.
 </t>
         </is>
